--- a/porownanie (7).xlsx
+++ b/porownanie (7).xlsx
@@ -1,26 +1,467 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD772C49-2009-4429-95AF-DC14F42DAC7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="32880" yWindow="5175" windowWidth="16200" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="142">
+  <si>
+    <t>bl4_S235JR_41665_SL041665_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S355J2+N_41489_SL041489_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_41489_SL041489_p3_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JRC_41469_SL041469_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41469_SL041469_p2_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_41446_SL041446_p1_4szt_</t>
+  </si>
+  <si>
+    <t>bl50_S355J4+N_41734_SL041734_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_33608_SL033608_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_41549_SL025600 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_41549_SL025600 K_p2_2szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_41452_SL024833 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl25_S235JR_101902_SL105503 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_42842_SL042842_p4_2szt_</t>
+  </si>
+  <si>
+    <t>bl15_S235JR_42842_SL042842_p6_2szt_</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_42426_SL042426_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_42425_SL042425_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41594_SL041594_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_41594_SL041594_p2_4szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_41594_SL041594_p3_2szt_</t>
+  </si>
+  <si>
+    <t>bl2_DC 01_41621_SL041621_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41621_SL041621_p2_1szt_</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_41621_SL041621_p3_2szt_</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_42016_SL042016_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl8_S235JR_48349_SL081640 K_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl__41599_SL025647 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41597_SL041597_p1_8szt_</t>
+  </si>
+  <si>
+    <t>bl8_VKS_41619_SL6010464_p7_1szt_</t>
+  </si>
+  <si>
+    <t>bl4_OHNE EINLAGE_41619_SL6010465_p8_1szt_</t>
+  </si>
+  <si>
+    <t>bl__41599_SL025648 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl__131939_SL131939_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41527_SL025459 K_p1_34szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41478_SL041478_p1_17szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41490_SL073215_p1_4szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41532_SL025606 K_p2_4szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JRC_10019982_SL10019982_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_10019982_SL10019981_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl6_S355J2+N_41612_SL025657 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl6_S355J2+N_41641_SL041641_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41605_SL041605_p1_6szt_</t>
+  </si>
+  <si>
+    <t>bl10_S355J2+N_41489_SL041489_p1_12szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_33395_SL025725 K_p1_6szt_</t>
+  </si>
+  <si>
+    <t>bl15_S235JR_42115_SL025491 K_p1_4szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_42115_SL025491 K_p2_8szt_</t>
+  </si>
+  <si>
+    <t>bl15_S235JR_121307_SL121307_p1_4szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_121307_SL121307_p2_8szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JRC_SL6032929_SL6032929_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_48171_SL048171_p2_4szt_</t>
+  </si>
+  <si>
+    <t>bl6_S235JR_SL10104456_SL10104456_p3_2szt_</t>
+  </si>
+  <si>
+    <t>bl6_S235JR_SL10104456_SL10104456_p4_4szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_SL10104462_SL10104462_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_SL10104464_SL10104464_p1_2szt_</t>
+  </si>
+  <si>
+    <t>lista (7)</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41643_SL041643_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl10_S355J2+N_41643_SL041489_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_41643_SL041489_p3_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JRC_41469_SL041469_p1_1szt_G</t>
+  </si>
+  <si>
+    <t>bl50_S355J4+N_41734_SL041734_p1_2szt_O</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_41549_SL025600 K_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl25_S235JR_101902_SL105503 K_p1_2szt_O</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_42426_SL042426_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41594_SL041594_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_44598_SL044598_p1_1szt_G</t>
+  </si>
+  <si>
+    <t>bl2_DC 01_41621_SL041621_p1_1szt_G</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41621_SL041621_p2_1szt_G</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_41621_SL041621_p3_2szt_G</t>
+  </si>
+  <si>
+    <t>bl3_S235JR_42016_SL042016_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_41629_SL025651 K_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41597_SL041597_p1_8szt_G</t>
+  </si>
+  <si>
+    <t>bl4_DX51D+Z (ocynk)_41339_SL041339_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl4_DX51D+Z (ocynk)_41619_SL041619_p1_1szt_G</t>
+  </si>
+  <si>
+    <t>bl4_DX51D+Z (ocynk)_41619_SL041619_p2_1szt_</t>
+  </si>
+  <si>
+    <t>bl4_OHNE EINLAGE___p8_1szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41527_SL025459 K_p1_16szt_G</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41478_SL041478_p1_8szt_G</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_41626_SL025653 K_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl4_DX51D+Z (ocynk)_41339_SL024918 K_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_41988_SL126533 K_p1_1szt_G</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41490_SL073215_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41532_SL025606 K_p2_2szt_</t>
+  </si>
+  <si>
+    <t>bl6_S355J2+N_41612_SL025657 K_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl6_S355J2+N_41641_SL041641_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_73214_SL073214_p1_8szt_G</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41478_SL041478_p1_4szt_G</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_73214_SL041478_p4_8szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_73214_SL041478_p5_4szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_73214_SL041478_p6_4szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_73211_SL073211_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_73211_SL073211_p2_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_73211_SL073211_p3_4szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_73211_SL073211_p5_2szt_G</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_53262_SL084463 K_p2_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_73212_SL073212_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl10_S355J2+N_10019908_SL10019908_p1_2szt_O</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_73212_SL10019908_p5_2szt_</t>
+  </si>
+  <si>
+    <t>bl15_S235JR_42115_SL025491 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_42115_SL025491 K_p2_4szt_G</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_33395_SL025725 K_p1_6szt_G</t>
+  </si>
+  <si>
+    <t>bl6_HB 400_SL10104456_SL10104456_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl6_HB 400_SL10104456_SL10104456_p2_1szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JRC_10019982_SL10019982_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl2_DX51D+Z (ocynk)_10019983_SL10019983_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl2_DX51D+Z (ocynk)_10019983_SL10019983_p2_4szt_G</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_10019982_SL10019981_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl4_S235JRC_SL6032929_SL6032929_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>bl15_S235JR_121307_SL121307_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_121307_SL121307_p2_4szt_G</t>
+  </si>
+  <si>
+    <t>bl20_S235JR_10019880_SL10019880_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl10_S355J2+N_10019879_SL10019879_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_41452_SL024833 K_p1_2szt_G</t>
+  </si>
+  <si>
+    <t>lista (6)</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41643_SL041643_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_44598_SL044598_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_41629_SL025651 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_DX51D+Z (ocynk)_41339_SL041339_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_DX51D+Z (ocynk)_41619_SL041619_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41527_SL025459 K_p1_16szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41478_SL041478_p1_8szt_</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_41626_SL025653 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_DX51D+Z (ocynk)_41339_SL024918 K_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl3_DX51D+Z (ocynk)_41988_SL126533 K_p1_1szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_41490_SL073215_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl6_S355J2+N_41641_SL041641_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_73214_SL073214_p1_8szt_</t>
+  </si>
+  <si>
+    <t>bl5_S235JR_41478_SL041478_p1_4szt_</t>
+  </si>
+  <si>
+    <t>bl10_S235JR_73211_SL073211_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_73211_SL073211_p5_2szt_</t>
+  </si>
+  <si>
+    <t>bl4_S235JR_73212_SL073212_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_42115_SL025491 K_p2_4szt_</t>
+  </si>
+  <si>
+    <t>bl2_DX51D+Z (ocynk)_10019983_SL10019983_p1_2szt_</t>
+  </si>
+  <si>
+    <t>bl2_DX51D+Z (ocynk)_10019983_SL10019983_p2_4szt_</t>
+  </si>
+  <si>
+    <t>bl8_S355J2+N_121307_SL121307_p2_4szt_</t>
+  </si>
+  <si>
+    <t>bl4_HNE EINLAGE___p8_1szt_</t>
+  </si>
+  <si>
+    <t>bl10_S355J2+N_10019908_SL10019908_p1_2szt_</t>
+  </si>
+  <si>
+    <t>1x jak pokazano
+1x odbicie lustrzane</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>gr30 na rysunku</t>
+  </si>
+  <si>
+    <t>8x jak pokazano
+8x odbicie lustrzane</t>
+  </si>
+  <si>
+    <t>4x jak pokazano
+4x odbicie lustrzane</t>
+  </si>
+  <si>
+    <t>2x jak pokazano</t>
+  </si>
+  <si>
+    <t>2x jak pokazano
+2x odbicie lustrzane</t>
+  </si>
+  <si>
+    <t>2x odbicie lustrzane</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +469,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +519,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +857,1543 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="b">
+        <f>B2=C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D66" si="0">B3=C3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>76</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>78</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>80</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>83</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>91</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>92</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>97</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>99</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>101</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>110</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>114</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>127</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>137</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>139</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>142</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>145</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>146</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>152</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>154</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>157</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>167</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>169</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>172</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>175</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>180</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>188</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>190</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>196</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>206</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>209</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>212</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>213</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>221</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>225</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>230</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>236</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>238</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>244</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>253</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>254</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>259</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>260</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>265</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>312</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>329</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>330</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>331</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="b">
+        <f t="shared" ref="D67:D80" si="1">B67=C67</f>
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>332</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>334</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>338</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>